--- a/Investigacion entrevista-observacion/Observacion/Hoja auditoria linea 1-13 en Terminal/Dom1deJulio2018_1-13.xlsx
+++ b/Investigacion entrevista-observacion/Observacion/Hoja auditoria linea 1-13 en Terminal/Dom1deJulio2018_1-13.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12780" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Linea1Cambio" sheetId="1" r:id="rId1"/>
     <sheet name="Linea1Puerto" sheetId="2" r:id="rId2"/>
     <sheet name="Linea13Cambio" sheetId="3" r:id="rId3"/>
     <sheet name="Linea13Puerto" sheetId="4" r:id="rId4"/>
+    <sheet name="Bajan" sheetId="5" r:id="rId5"/>
+    <sheet name="suben" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -794,6 +796,1095 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea1Puerto!$E$10:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EA0-47F7-87A3-04E0F995140C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1256653840"/>
+        <c:axId val="1256655504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1256653840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256655504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1256655504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256653840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea13Cambio!$E$10:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2044-4DE6-9626-92E28780988D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1242456784"/>
+        <c:axId val="1242453872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1242456784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242453872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242453872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242456784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea13Puerto!$E$10:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-927F-45CE-85E7-1E8AB1262225}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1242465520"/>
+        <c:axId val="1242466768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1242465520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242466768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242466768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242465520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2430,7 +3521,2619 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Pasajeros que parten del centro de la ciudad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> con destino </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>al Terminal: Linea 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8986001749781265E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea1Cambio!$F$10:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AFD-4E2B-9856-819AF231561F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="2015715391"/>
+        <c:axId val="2015735359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2015715391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-EC" baseline="0"/>
+                  <a:t> de bus según orden de llegada</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015735359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015735359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Cantidad de pasajeros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015715391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Pasajeros que parten de El Cambio con destino al Terminal: Linea 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16913188976377949"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea1Puerto!$F$10:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FA7-4205-B824-0F5F1607CE9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="2015723295"/>
+        <c:axId val="2015734943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2015723295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-EC" baseline="0"/>
+                  <a:t> de bus según orden de llegada</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015734943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015734943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Cantidad de pasajeros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015723295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Pasajeros que parten del centro de la ciudad con destino al Terminal: Linea 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13511789151356079"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea13Cambio!$F$10:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D51C-4AF0-AFC6-B8C71EDD23B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="2016872015"/>
+        <c:axId val="1948267359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2016872015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Número de bus según orden de llegada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948267359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1948267359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Cantidad de pasajeros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2016872015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Pasajeros que parten de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> El Cambio con destino al Terminal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>: Linea 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17746522309711285"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea13Puerto!$F$10:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4875-4BB8-B3BD-D175FB282AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="2112561647"/>
+        <c:axId val="2112552079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2112561647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Número de bus según orden de llegada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112552079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2112552079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Cantidad de pasajeros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112561647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Linea1Cambio!$E$10:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AF2-4876-B5A5-220C69929C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1055826800"/>
+        <c:axId val="1246964224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1055826800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246964224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1246964224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055826800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2590,6 +6293,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -3139,6 +7042,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -4781,6 +10193,2705 @@
           <a:schemeClr val="lt1"/>
         </a:bgClr>
       </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -4926,6 +13037,272 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>696685</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>696685</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5192,7 +13569,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E10" sqref="E10:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,8 +14027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6173,8 +14550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,8 +15172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7285,4 +15662,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>